--- a/biology/Zoologie/Gelasimus_vocans/Gelasimus_vocans.xlsx
+++ b/biology/Zoologie/Gelasimus_vocans/Gelasimus_vocans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gelasimus vocans (anciennement Uca vocans), la Gélasime appelante, est une espèce de petits crabes violonistes. Plusieurs formes de U. vocans ont été reconnues, leurs auteurs leur accordant souvent le rang taxinomique d'espèces complètes ou de sous-espèces[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gelasimus vocans (anciennement Uca vocans), la Gélasime appelante, est une espèce de petits crabes violonistes. Plusieurs formes de U. vocans ont été reconnues, leurs auteurs leur accordant souvent le rang taxinomique d'espèces complètes ou de sous-espèces.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le crabe violoniste Gelasimus vocans mesure de 1 à 2 cm[5]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le crabe violoniste Gelasimus vocans mesure de 1 à 2 cm. 
 Il a des yeux très pédonculés et une grosse pince. 
 Le mâle agite sa grosse pince pour attirer les femelles et impressionner ses rivaux.
 Il se nourrit des particules de matière organique qu'il trouve parmi les alluvions.
@@ -545,10 +559,12 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On le trouve à travers l'Indo-Pacifique depuis la mer Rouge, Zanzibar et Madagascar jusqu'à l'Indonésie et l'océan Pacifique central[6] .
-Il aime les rivages boueux : il fouit la vase des mangroves[7]. Il vit dans des terriers de jusqu'à 50 cm de  profondeur qu'il creuse sur les plages. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On le trouve à travers l'Indo-Pacifique depuis la mer Rouge, Zanzibar et Madagascar jusqu'à l'Indonésie et l'océan Pacifique central .
+Il aime les rivages boueux : il fouit la vase des mangroves. Il vit dans des terriers de jusqu'à 50 cm de  profondeur qu'il creuse sur les plages. 
 </t>
         </is>
       </c>
